--- a/WorkSheet/OGM作業実績報告書_10月.xlsx
+++ b/WorkSheet/OGM作業実績報告書_10月.xlsx
@@ -2232,6 +2232,449 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="64" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="79" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="84" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="85" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="82" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="46" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="80" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="2" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="2" borderId="6" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="2" borderId="44" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="2" borderId="59" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="2" borderId="60" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="57" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="2" borderId="58" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="2" borderId="47" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="2" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="183" fontId="22" fillId="2" borderId="49" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="76" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="27" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="28" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="24" fillId="0" borderId="29" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="78" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="23" fillId="0" borderId="82" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="25" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="26" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="27" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="28" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="20" fillId="0" borderId="29" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="30" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="13" fillId="0" borderId="31" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="13" fillId="0" borderId="32" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="83" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="39" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="40" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="41" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="57" fillId="2" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="57" fillId="2" borderId="23" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="67" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="67" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="81" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="66" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="82" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="67" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="67" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="81" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="53" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="54" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="55" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="19" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2296,449 +2739,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="53" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="54" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="55" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="57" fillId="2" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="57" fillId="2" borderId="23" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="67" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="67" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="81" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="19" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="67" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="67" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="81" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="66" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="82" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="25" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="26" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="27" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="28" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="20" fillId="0" borderId="29" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="30" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="13" fillId="0" borderId="31" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="13" fillId="0" borderId="32" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="77" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="34" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="83" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="39" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="40" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="41" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="2" borderId="59" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="2" borderId="60" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="70" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="2" borderId="57" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="2" borderId="58" xfId="41" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="2" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="2" borderId="6" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="2" borderId="44" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="61" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="2" borderId="47" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="2" borderId="48" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="183" fontId="22" fillId="2" borderId="49" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="76" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="24" fillId="0" borderId="27" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="24" fillId="0" borderId="28" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="24" fillId="0" borderId="29" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="41" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="66" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="78" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="47" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="23" fillId="0" borderId="82" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="43" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="64" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="79" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="0" borderId="84" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="74" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="85" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="82" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="63" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="30" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="77" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="46" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="80" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3403,7 +3403,9 @@
   </sheetPr>
   <dimension ref="B2:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41:H41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
@@ -3426,288 +3428,288 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="187"/>
+      <c r="O2" s="187"/>
+      <c r="P2" s="187"/>
+      <c r="Q2" s="187"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="187"/>
+      <c r="T2" s="187"/>
+      <c r="U2" s="187"/>
+      <c r="V2" s="187"/>
+      <c r="W2" s="187"/>
+      <c r="X2" s="187"/>
+      <c r="Y2" s="187"/>
     </row>
     <row r="3" spans="2:25" ht="30" customHeight="1">
-      <c r="B3" s="56">
+      <c r="B3" s="189">
         <v>43739</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="190"/>
+      <c r="E3" s="190"/>
+      <c r="F3" s="190"/>
+      <c r="G3" s="190"/>
+      <c r="H3" s="190"/>
       <c r="O3" s="13"/>
       <c r="P3" s="1"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="60"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="61" t="s">
+      <c r="Q3" s="191"/>
+      <c r="R3" s="192"/>
+      <c r="S3" s="193"/>
+      <c r="T3" s="193"/>
+      <c r="U3" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61" t="str">
+      <c r="V3" s="194"/>
+      <c r="W3" s="194" t="str">
         <f>SUBSTITUTE(TEXT(B3,"m／dd ～ m／&amp;&amp;"),"&amp;&amp;",IF(B42&lt;&gt;"",DAY(B42),IF(B41&lt;&gt;"",DAY(B41),IF(B40&lt;&gt;"",DAY(B40),IF(B39&lt;&gt;"",DAY(B39),"")))))</f>
         <v>10/01 ～ 10/31</v>
       </c>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
+      <c r="X3" s="194"/>
+      <c r="Y3" s="194"/>
     </row>
     <row r="4" spans="2:25" ht="36" customHeight="1">
-      <c r="B4" s="62"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
+      <c r="B4" s="195"/>
+      <c r="C4" s="196"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="196"/>
+      <c r="G4" s="196"/>
+      <c r="H4" s="196"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
-      <c r="Q4" s="91" t="s">
+      <c r="Q4" s="170" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
+      <c r="R4" s="171"/>
+      <c r="S4" s="171"/>
+      <c r="T4" s="171"/>
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="2:25" ht="35.25" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68"/>
+      <c r="C5" s="198"/>
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="200"/>
+      <c r="H5" s="200"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="200"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="201"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
+      <c r="Q5" s="171"/>
+      <c r="R5" s="171"/>
+      <c r="S5" s="171"/>
+      <c r="T5" s="171"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="69" t="s">
+      <c r="V5" s="202" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="70"/>
-      <c r="X5" s="71" t="s">
+      <c r="W5" s="203"/>
+      <c r="X5" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="Y5" s="72"/>
+      <c r="Y5" s="205"/>
     </row>
     <row r="6" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="157" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75" t="s">
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
+      <c r="E6" s="158"/>
+      <c r="F6" s="159" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="77"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="160"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
+      <c r="L6" s="160"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="161"/>
       <c r="O6" s="16" t="s">
         <v>6</v>
       </c>
       <c r="P6" s="17"/>
-      <c r="Q6" s="92"/>
-      <c r="R6" s="92"/>
-      <c r="S6" s="92"/>
-      <c r="T6" s="92"/>
+      <c r="Q6" s="171"/>
+      <c r="R6" s="171"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="171"/>
       <c r="U6" s="17"/>
-      <c r="V6" s="93"/>
-      <c r="W6" s="94"/>
-      <c r="X6" s="97"/>
-      <c r="Y6" s="98"/>
+      <c r="V6" s="172"/>
+      <c r="W6" s="173"/>
+      <c r="X6" s="176"/>
+      <c r="Y6" s="177"/>
     </row>
     <row r="7" spans="2:25" ht="35.1" customHeight="1">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="80"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
+      <c r="M7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="164"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="171"/>
+      <c r="S7" s="171"/>
+      <c r="T7" s="171"/>
       <c r="U7" s="17"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="97"/>
-      <c r="Y7" s="98"/>
+      <c r="V7" s="172"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="176"/>
+      <c r="Y7" s="177"/>
     </row>
     <row r="8" spans="2:25" ht="35.25" customHeight="1">
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="165" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="85"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="168"/>
+      <c r="H8" s="168"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="168"/>
+      <c r="O8" s="169"/>
       <c r="P8" s="17"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
+      <c r="Q8" s="171"/>
+      <c r="R8" s="171"/>
+      <c r="S8" s="171"/>
+      <c r="T8" s="171"/>
       <c r="U8" s="17"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="96"/>
-      <c r="X8" s="99"/>
-      <c r="Y8" s="100"/>
+      <c r="V8" s="174"/>
+      <c r="W8" s="175"/>
+      <c r="X8" s="178"/>
+      <c r="Y8" s="179"/>
     </row>
     <row r="9" spans="2:25" ht="12" customHeight="1"/>
     <row r="10" spans="2:25" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="178" t="s">
+      <c r="B10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="183" t="s">
+      <c r="D10" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="180" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="105" t="s">
+      <c r="F10" s="181"/>
+      <c r="G10" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="178" t="s">
+      <c r="H10" s="184"/>
+      <c r="I10" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="185" t="s">
+      <c r="J10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="185" t="s">
+      <c r="K10" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="185" t="s">
+      <c r="L10" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="105" t="s">
+      <c r="M10" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="178" t="s">
+      <c r="N10" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="185" t="s">
+      <c r="O10" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="105" t="s">
+      <c r="P10" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="178" t="s">
+      <c r="Q10" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="190" t="s">
+      <c r="R10" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="S10" s="105" t="s">
+      <c r="S10" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="200" t="s">
+      <c r="T10" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="U10" s="201"/>
-      <c r="V10" s="201"/>
-      <c r="W10" s="201"/>
-      <c r="X10" s="201"/>
-      <c r="Y10" s="202"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="86"/>
     </row>
     <row r="11" spans="2:25" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="B11" s="179"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="179"/>
-      <c r="R11" s="191"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="203"/>
-      <c r="U11" s="204"/>
-      <c r="V11" s="204"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="204"/>
-      <c r="Y11" s="205"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="88"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="89"/>
     </row>
     <row r="12" spans="2:25" ht="33" customHeight="1">
       <c r="B12" s="5">
@@ -3722,14 +3724,14 @@
         <f>IF(E12&lt;&gt;"","勤","休")</f>
         <v>勤</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="86">
+      <c r="F12" s="147"/>
+      <c r="G12" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H12" s="87"/>
+      <c r="H12" s="147"/>
       <c r="I12" s="18"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
@@ -3750,12 +3752,12 @@
       <c r="Q12" s="39"/>
       <c r="R12" s="52"/>
       <c r="S12" s="40"/>
-      <c r="T12" s="88"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="90"/>
+      <c r="T12" s="148"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="150"/>
     </row>
     <row r="13" spans="2:25" ht="33" customHeight="1">
       <c r="B13" s="5">
@@ -3770,14 +3772,14 @@
         <f>IF(E13&lt;&gt;"","勤","休")</f>
         <v>勤</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="86">
+      <c r="F13" s="147"/>
+      <c r="G13" s="146">
         <v>43619.763888888891</v>
       </c>
-      <c r="H13" s="87"/>
+      <c r="H13" s="147"/>
       <c r="I13" s="18"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -3798,12 +3800,12 @@
       <c r="Q13" s="39"/>
       <c r="R13" s="52"/>
       <c r="S13" s="40"/>
-      <c r="T13" s="88"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="90"/>
+      <c r="T13" s="148"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="150"/>
     </row>
     <row r="14" spans="2:25" ht="33" customHeight="1">
       <c r="B14" s="5">
@@ -3818,14 +3820,14 @@
         <f>IF(E14&lt;&gt;"","勤","休")</f>
         <v>勤</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F14" s="87"/>
-      <c r="G14" s="86">
+      <c r="F14" s="147"/>
+      <c r="G14" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H14" s="87"/>
+      <c r="H14" s="147"/>
       <c r="I14" s="18"/>
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
@@ -3846,12 +3848,12 @@
       <c r="Q14" s="39"/>
       <c r="R14" s="52"/>
       <c r="S14" s="40"/>
-      <c r="T14" s="88"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="90"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="150"/>
     </row>
     <row r="15" spans="2:25" ht="33" customHeight="1">
       <c r="B15" s="5">
@@ -3866,10 +3868,10 @@
         <f>IF(E15&lt;&gt;"","勤","休")</f>
         <v>休</v>
       </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
       <c r="I15" s="18"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -3890,12 +3892,12 @@
       <c r="Q15" s="39"/>
       <c r="R15" s="52"/>
       <c r="S15" s="40"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="90"/>
+      <c r="T15" s="148"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="150"/>
     </row>
     <row r="16" spans="2:25" ht="33" customHeight="1">
       <c r="B16" s="5">
@@ -3910,10 +3912,10 @@
         <f>IF(E16&lt;&gt;"","勤","休")</f>
         <v>休</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="147"/>
       <c r="I16" s="18"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
@@ -3934,12 +3936,12 @@
       <c r="Q16" s="39"/>
       <c r="R16" s="52"/>
       <c r="S16" s="40"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="90"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="150"/>
     </row>
     <row r="17" spans="2:25" ht="33" customHeight="1">
       <c r="B17" s="5">
@@ -3954,10 +3956,10 @@
         <f t="shared" ref="D17:D42" si="5">IF(E17&lt;&gt;"","勤","休")</f>
         <v>休</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="87"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="147"/>
       <c r="I17" s="18"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -3978,12 +3980,12 @@
       <c r="Q17" s="39"/>
       <c r="R17" s="52"/>
       <c r="S17" s="40"/>
-      <c r="T17" s="88"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="90"/>
+      <c r="T17" s="148"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="150"/>
     </row>
     <row r="18" spans="2:25" ht="33" customHeight="1">
       <c r="B18" s="5">
@@ -3998,14 +4000,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E18" s="86">
+      <c r="E18" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="86">
+      <c r="F18" s="147"/>
+      <c r="G18" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H18" s="87"/>
+      <c r="H18" s="147"/>
       <c r="I18" s="18"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -4026,12 +4028,12 @@
       <c r="Q18" s="39"/>
       <c r="R18" s="52"/>
       <c r="S18" s="40"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="90"/>
+      <c r="T18" s="148"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="150"/>
     </row>
     <row r="19" spans="2:25" ht="33" customHeight="1">
       <c r="B19" s="5">
@@ -4046,14 +4048,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F19" s="87"/>
-      <c r="G19" s="86">
+      <c r="F19" s="147"/>
+      <c r="G19" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H19" s="87"/>
+      <c r="H19" s="147"/>
       <c r="I19" s="18"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -4074,12 +4076,12 @@
       <c r="Q19" s="39"/>
       <c r="R19" s="52"/>
       <c r="S19" s="40"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="90"/>
+      <c r="T19" s="148"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="150"/>
     </row>
     <row r="20" spans="2:25" ht="33" customHeight="1">
       <c r="B20" s="5">
@@ -4094,14 +4096,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="86">
+      <c r="F20" s="147"/>
+      <c r="G20" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H20" s="87"/>
+      <c r="H20" s="147"/>
       <c r="I20" s="18"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -4122,12 +4124,12 @@
       <c r="Q20" s="39"/>
       <c r="R20" s="52"/>
       <c r="S20" s="40"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="90"/>
+      <c r="T20" s="148"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="150"/>
     </row>
     <row r="21" spans="2:25" ht="33" customHeight="1">
       <c r="B21" s="5">
@@ -4142,14 +4144,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="86">
+      <c r="F21" s="147"/>
+      <c r="G21" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H21" s="87"/>
+      <c r="H21" s="147"/>
       <c r="I21" s="18"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -4170,12 +4172,12 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="52"/>
       <c r="S21" s="40"/>
-      <c r="T21" s="88"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="90"/>
+      <c r="T21" s="148"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="149"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="150"/>
     </row>
     <row r="22" spans="2:25" ht="33" customHeight="1">
       <c r="B22" s="5">
@@ -4190,14 +4192,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="86">
+      <c r="F22" s="147"/>
+      <c r="G22" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H22" s="87"/>
+      <c r="H22" s="147"/>
       <c r="I22" s="18"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -4218,12 +4220,12 @@
       <c r="Q22" s="39"/>
       <c r="R22" s="52"/>
       <c r="S22" s="40"/>
-      <c r="T22" s="88"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="90"/>
+      <c r="T22" s="148"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="150"/>
     </row>
     <row r="23" spans="2:25" ht="33" customHeight="1">
       <c r="B23" s="5">
@@ -4238,10 +4240,10 @@
         <f t="shared" si="5"/>
         <v>休</v>
       </c>
-      <c r="E23" s="86"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="147"/>
       <c r="I23" s="18"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -4262,12 +4264,12 @@
       <c r="Q23" s="39"/>
       <c r="R23" s="52"/>
       <c r="S23" s="40"/>
-      <c r="T23" s="88"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="90"/>
+      <c r="T23" s="148"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="150"/>
     </row>
     <row r="24" spans="2:25" ht="33" customHeight="1">
       <c r="B24" s="5">
@@ -4282,10 +4284,10 @@
         <f t="shared" si="5"/>
         <v>休</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="87"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
       <c r="I24" s="18"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -4306,12 +4308,12 @@
       <c r="Q24" s="39"/>
       <c r="R24" s="52"/>
       <c r="S24" s="40"/>
-      <c r="T24" s="88"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="90"/>
+      <c r="T24" s="148"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="150"/>
     </row>
     <row r="25" spans="2:25" ht="33" customHeight="1">
       <c r="B25" s="5">
@@ -4326,10 +4328,10 @@
         <f t="shared" si="5"/>
         <v>休</v>
       </c>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
       <c r="I25" s="18"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
@@ -4350,12 +4352,12 @@
       <c r="Q25" s="39"/>
       <c r="R25" s="52"/>
       <c r="S25" s="40"/>
-      <c r="T25" s="88"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="90"/>
+      <c r="T25" s="148"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="149"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="150"/>
     </row>
     <row r="26" spans="2:25" ht="33" customHeight="1">
       <c r="B26" s="5">
@@ -4370,14 +4372,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E26" s="86">
+      <c r="E26" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="86">
+      <c r="F26" s="147"/>
+      <c r="G26" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H26" s="87"/>
+      <c r="H26" s="147"/>
       <c r="I26" s="18"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
@@ -4398,12 +4400,12 @@
       <c r="Q26" s="39"/>
       <c r="R26" s="52"/>
       <c r="S26" s="40"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="110"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
-      <c r="X26" s="110"/>
-      <c r="Y26" s="111"/>
+      <c r="T26" s="154"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="156"/>
     </row>
     <row r="27" spans="2:25" ht="33" customHeight="1">
       <c r="B27" s="5">
@@ -4418,14 +4420,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="86">
+      <c r="F27" s="147"/>
+      <c r="G27" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H27" s="87"/>
+      <c r="H27" s="147"/>
       <c r="I27" s="18"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
@@ -4446,12 +4448,12 @@
       <c r="Q27" s="39"/>
       <c r="R27" s="52"/>
       <c r="S27" s="40"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="90"/>
+      <c r="T27" s="148"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="149"/>
+      <c r="W27" s="149"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="150"/>
     </row>
     <row r="28" spans="2:25" ht="33" customHeight="1">
       <c r="B28" s="5">
@@ -4466,14 +4468,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E28" s="86">
+      <c r="E28" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F28" s="87"/>
-      <c r="G28" s="86">
+      <c r="F28" s="147"/>
+      <c r="G28" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H28" s="87"/>
+      <c r="H28" s="147"/>
       <c r="I28" s="18"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -4494,12 +4496,12 @@
       <c r="Q28" s="39"/>
       <c r="R28" s="52"/>
       <c r="S28" s="40"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="90"/>
+      <c r="T28" s="148"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="149"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="150"/>
     </row>
     <row r="29" spans="2:25" ht="33" customHeight="1">
       <c r="B29" s="5">
@@ -4514,14 +4516,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E29" s="86">
+      <c r="E29" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="86">
+      <c r="F29" s="147"/>
+      <c r="G29" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H29" s="87"/>
+      <c r="H29" s="147"/>
       <c r="I29" s="18"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -4542,12 +4544,12 @@
       <c r="Q29" s="39"/>
       <c r="R29" s="52"/>
       <c r="S29" s="40"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="90"/>
+      <c r="T29" s="148"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="149"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="150"/>
     </row>
     <row r="30" spans="2:25" ht="33" customHeight="1">
       <c r="B30" s="5">
@@ -4562,10 +4564,10 @@
         <f t="shared" si="5"/>
         <v>休</v>
       </c>
-      <c r="E30" s="86"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="87"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="147"/>
       <c r="I30" s="18"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
@@ -4586,12 +4588,12 @@
       <c r="Q30" s="39"/>
       <c r="R30" s="52"/>
       <c r="S30" s="40"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="90"/>
+      <c r="T30" s="148"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="150"/>
     </row>
     <row r="31" spans="2:25" ht="33" customHeight="1">
       <c r="B31" s="5">
@@ -4606,10 +4608,10 @@
         <f t="shared" si="5"/>
         <v>休</v>
       </c>
-      <c r="E31" s="86"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="87"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="147"/>
       <c r="I31" s="18"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -4630,12 +4632,12 @@
       <c r="Q31" s="39"/>
       <c r="R31" s="52"/>
       <c r="S31" s="40"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="90"/>
+      <c r="T31" s="148"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="150"/>
     </row>
     <row r="32" spans="2:25" ht="33" customHeight="1">
       <c r="B32" s="5">
@@ -4650,14 +4652,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E32" s="86">
+      <c r="E32" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F32" s="87"/>
-      <c r="G32" s="86">
+      <c r="F32" s="147"/>
+      <c r="G32" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H32" s="87"/>
+      <c r="H32" s="147"/>
       <c r="I32" s="18"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
@@ -4678,12 +4680,12 @@
       <c r="Q32" s="39"/>
       <c r="R32" s="52"/>
       <c r="S32" s="40"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="90"/>
+      <c r="T32" s="148"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="150"/>
     </row>
     <row r="33" spans="2:25" ht="33" customHeight="1">
       <c r="B33" s="5">
@@ -4698,10 +4700,10 @@
         <f t="shared" si="5"/>
         <v>休</v>
       </c>
-      <c r="E33" s="86"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="87"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="147"/>
       <c r="I33" s="18"/>
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
@@ -4722,12 +4724,12 @@
       <c r="Q33" s="39"/>
       <c r="R33" s="52"/>
       <c r="S33" s="40"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="90"/>
+      <c r="T33" s="148"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="149"/>
+      <c r="Y33" s="150"/>
     </row>
     <row r="34" spans="2:25" ht="33" customHeight="1">
       <c r="B34" s="5">
@@ -4742,14 +4744,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E34" s="86">
+      <c r="E34" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F34" s="87"/>
-      <c r="G34" s="86">
+      <c r="F34" s="147"/>
+      <c r="G34" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H34" s="87"/>
+      <c r="H34" s="147"/>
       <c r="I34" s="18"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
@@ -4770,12 +4772,12 @@
       <c r="Q34" s="39"/>
       <c r="R34" s="52"/>
       <c r="S34" s="40"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="89"/>
-      <c r="V34" s="89"/>
-      <c r="W34" s="89"/>
-      <c r="X34" s="89"/>
-      <c r="Y34" s="90"/>
+      <c r="T34" s="148"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="149"/>
+      <c r="W34" s="149"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="150"/>
     </row>
     <row r="35" spans="2:25" ht="33" customHeight="1">
       <c r="B35" s="5">
@@ -4790,14 +4792,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E35" s="86">
+      <c r="E35" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F35" s="87"/>
-      <c r="G35" s="86">
+      <c r="F35" s="147"/>
+      <c r="G35" s="146">
         <v>43619.833333333336</v>
       </c>
-      <c r="H35" s="87"/>
+      <c r="H35" s="147"/>
       <c r="I35" s="18"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
@@ -4818,12 +4820,12 @@
       <c r="Q35" s="39"/>
       <c r="R35" s="52"/>
       <c r="S35" s="40"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="89"/>
-      <c r="V35" s="89"/>
-      <c r="W35" s="89"/>
-      <c r="X35" s="89"/>
-      <c r="Y35" s="90"/>
+      <c r="T35" s="148"/>
+      <c r="U35" s="149"/>
+      <c r="V35" s="149"/>
+      <c r="W35" s="149"/>
+      <c r="X35" s="149"/>
+      <c r="Y35" s="150"/>
     </row>
     <row r="36" spans="2:25" ht="33" customHeight="1">
       <c r="B36" s="5">
@@ -4838,14 +4840,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E36" s="86">
+      <c r="E36" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F36" s="87"/>
-      <c r="G36" s="86">
+      <c r="F36" s="147"/>
+      <c r="G36" s="146">
         <v>43619.833333333336</v>
       </c>
-      <c r="H36" s="87"/>
+      <c r="H36" s="147"/>
       <c r="I36" s="18"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
@@ -4866,12 +4868,12 @@
       <c r="Q36" s="39"/>
       <c r="R36" s="52"/>
       <c r="S36" s="40"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="89"/>
-      <c r="V36" s="89"/>
-      <c r="W36" s="89"/>
-      <c r="X36" s="89"/>
-      <c r="Y36" s="90"/>
+      <c r="T36" s="148"/>
+      <c r="U36" s="149"/>
+      <c r="V36" s="149"/>
+      <c r="W36" s="149"/>
+      <c r="X36" s="149"/>
+      <c r="Y36" s="150"/>
     </row>
     <row r="37" spans="2:25" ht="33" customHeight="1">
       <c r="B37" s="5">
@@ -4886,10 +4888,10 @@
         <f t="shared" si="5"/>
         <v>休</v>
       </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="87"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="147"/>
       <c r="I37" s="18"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -4910,12 +4912,12 @@
       <c r="Q37" s="39"/>
       <c r="R37" s="52"/>
       <c r="S37" s="40"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="89"/>
-      <c r="V37" s="89"/>
-      <c r="W37" s="89"/>
-      <c r="X37" s="89"/>
-      <c r="Y37" s="90"/>
+      <c r="T37" s="148"/>
+      <c r="U37" s="149"/>
+      <c r="V37" s="149"/>
+      <c r="W37" s="149"/>
+      <c r="X37" s="149"/>
+      <c r="Y37" s="150"/>
     </row>
     <row r="38" spans="2:25" ht="33" customHeight="1">
       <c r="B38" s="5">
@@ -4930,10 +4932,10 @@
         <f t="shared" si="5"/>
         <v>休</v>
       </c>
-      <c r="E38" s="86"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="87"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="147"/>
       <c r="I38" s="18"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
@@ -4954,12 +4956,12 @@
       <c r="Q38" s="39"/>
       <c r="R38" s="52"/>
       <c r="S38" s="40"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="90"/>
+      <c r="T38" s="148"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="149"/>
+      <c r="W38" s="149"/>
+      <c r="X38" s="149"/>
+      <c r="Y38" s="150"/>
     </row>
     <row r="39" spans="2:25" ht="33" customHeight="1">
       <c r="B39" s="5">
@@ -4974,10 +4976,10 @@
         <f t="shared" si="5"/>
         <v>休</v>
       </c>
-      <c r="E39" s="86"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="87"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="147"/>
       <c r="I39" s="18"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
@@ -4995,12 +4997,12 @@
       <c r="Q39" s="39"/>
       <c r="R39" s="52"/>
       <c r="S39" s="40"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="89"/>
-      <c r="W39" s="89"/>
-      <c r="X39" s="89"/>
-      <c r="Y39" s="90"/>
+      <c r="T39" s="148"/>
+      <c r="U39" s="149"/>
+      <c r="V39" s="149"/>
+      <c r="W39" s="149"/>
+      <c r="X39" s="149"/>
+      <c r="Y39" s="150"/>
     </row>
     <row r="40" spans="2:25" ht="33" customHeight="1">
       <c r="B40" s="5">
@@ -5015,14 +5017,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E40" s="86">
+      <c r="E40" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F40" s="87"/>
-      <c r="G40" s="86">
-        <v>43619.75</v>
-      </c>
-      <c r="H40" s="87"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="146">
+        <v>43619.770833333336</v>
+      </c>
+      <c r="H40" s="147"/>
       <c r="I40" s="18"/>
       <c r="J40" s="19"/>
       <c r="K40" s="19"/>
@@ -5034,21 +5036,21 @@
       </c>
       <c r="O40" s="22">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="P40" s="22">
         <f t="shared" si="6"/>
-        <v>140.25</v>
+        <v>140.75</v>
       </c>
       <c r="Q40" s="39"/>
       <c r="R40" s="52"/>
       <c r="S40" s="40"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="89"/>
-      <c r="V40" s="89"/>
-      <c r="W40" s="89"/>
-      <c r="X40" s="89"/>
-      <c r="Y40" s="90"/>
+      <c r="T40" s="148"/>
+      <c r="U40" s="149"/>
+      <c r="V40" s="149"/>
+      <c r="W40" s="149"/>
+      <c r="X40" s="149"/>
+      <c r="Y40" s="150"/>
     </row>
     <row r="41" spans="2:25" ht="33" customHeight="1">
       <c r="B41" s="5">
@@ -5063,14 +5065,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E41" s="86">
+      <c r="E41" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F41" s="87"/>
-      <c r="G41" s="86">
+      <c r="F41" s="147"/>
+      <c r="G41" s="146">
         <v>43619.75</v>
       </c>
-      <c r="H41" s="87"/>
+      <c r="H41" s="147"/>
       <c r="I41" s="18"/>
       <c r="J41" s="19"/>
       <c r="K41" s="19"/>
@@ -5086,17 +5088,17 @@
       </c>
       <c r="P41" s="22">
         <f t="shared" si="6"/>
-        <v>148.25</v>
+        <v>148.75</v>
       </c>
       <c r="Q41" s="39"/>
       <c r="R41" s="52"/>
       <c r="S41" s="40"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="89"/>
-      <c r="V41" s="89"/>
-      <c r="W41" s="89"/>
-      <c r="X41" s="89"/>
-      <c r="Y41" s="90"/>
+      <c r="T41" s="148"/>
+      <c r="U41" s="149"/>
+      <c r="V41" s="149"/>
+      <c r="W41" s="149"/>
+      <c r="X41" s="149"/>
+      <c r="Y41" s="150"/>
     </row>
     <row r="42" spans="2:25" ht="33" customHeight="1" thickBot="1">
       <c r="B42" s="8">
@@ -5111,14 +5113,14 @@
         <f t="shared" si="5"/>
         <v>勤</v>
       </c>
-      <c r="E42" s="86">
+      <c r="E42" s="146">
         <v>43619.375</v>
       </c>
-      <c r="F42" s="87"/>
-      <c r="G42" s="86">
+      <c r="F42" s="147"/>
+      <c r="G42" s="146">
         <v>43619.916666666664</v>
       </c>
-      <c r="H42" s="87"/>
+      <c r="H42" s="147"/>
       <c r="I42" s="18"/>
       <c r="J42" s="19"/>
       <c r="K42" s="19"/>
@@ -5134,48 +5136,48 @@
       </c>
       <c r="P42" s="22">
         <f t="shared" si="6"/>
-        <v>160.25</v>
+        <v>160.75</v>
       </c>
       <c r="Q42" s="39"/>
       <c r="R42" s="52"/>
       <c r="S42" s="40"/>
-      <c r="T42" s="112"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="114"/>
+      <c r="T42" s="151"/>
+      <c r="U42" s="152"/>
+      <c r="V42" s="152"/>
+      <c r="W42" s="152"/>
+      <c r="X42" s="152"/>
+      <c r="Y42" s="153"/>
     </row>
     <row r="43" spans="2:25" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B43" s="115" t="s">
+      <c r="B43" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="117">
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="127">
         <f>COUNTIF(D12:D42,"勤")</f>
         <v>19</v>
       </c>
-      <c r="F43" s="118"/>
-      <c r="G43" s="118"/>
-      <c r="H43" s="119"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="129"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
-      <c r="N43" s="120" t="s">
+      <c r="N43" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="O43" s="121"/>
+      <c r="O43" s="131"/>
       <c r="P43" s="25">
         <f>SUM(O12:O42)</f>
-        <v>160.25</v>
-      </c>
-      <c r="Q43" s="122" t="s">
+        <v>160.75</v>
+      </c>
+      <c r="Q43" s="132" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="123"/>
+      <c r="R43" s="133"/>
       <c r="S43" s="41">
         <f>SUM(S12:S42)</f>
         <v>0</v>
@@ -5202,79 +5204,79 @@
       <c r="S44" s="43"/>
     </row>
     <row r="45" spans="2:25" ht="24" customHeight="1">
-      <c r="B45" s="124">
+      <c r="B45" s="134">
         <f>B3</f>
         <v>43739</v>
       </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="125"/>
-      <c r="O45" s="125"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="126" t="s">
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="135"/>
+      <c r="R45" s="136" t="s">
         <v>28</v>
       </c>
-      <c r="S45" s="126"/>
-      <c r="T45" s="126"/>
-      <c r="U45" s="126"/>
-      <c r="V45" s="126"/>
-      <c r="W45" s="126"/>
-      <c r="X45" s="126"/>
-      <c r="Y45" s="127"/>
+      <c r="S45" s="136"/>
+      <c r="T45" s="136"/>
+      <c r="U45" s="136"/>
+      <c r="V45" s="136"/>
+      <c r="W45" s="136"/>
+      <c r="X45" s="136"/>
+      <c r="Y45" s="137"/>
     </row>
     <row r="46" spans="2:25" ht="16.5" customHeight="1">
-      <c r="B46" s="128" t="s">
+      <c r="B46" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="129"/>
-      <c r="D46" s="129"/>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="129"/>
-      <c r="L46" s="129"/>
-      <c r="M46" s="129"/>
-      <c r="N46" s="129"/>
-      <c r="O46" s="129"/>
-      <c r="P46" s="129"/>
-      <c r="Q46" s="129"/>
-      <c r="R46" s="129"/>
-      <c r="S46" s="129"/>
-      <c r="T46" s="129"/>
-      <c r="U46" s="129"/>
-      <c r="V46" s="129"/>
-      <c r="W46" s="129"/>
-      <c r="X46" s="129"/>
-      <c r="Y46" s="130"/>
+      <c r="C46" s="139"/>
+      <c r="D46" s="139"/>
+      <c r="E46" s="139"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="139"/>
+      <c r="I46" s="139"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="139"/>
+      <c r="L46" s="139"/>
+      <c r="M46" s="139"/>
+      <c r="N46" s="139"/>
+      <c r="O46" s="139"/>
+      <c r="P46" s="139"/>
+      <c r="Q46" s="139"/>
+      <c r="R46" s="139"/>
+      <c r="S46" s="139"/>
+      <c r="T46" s="139"/>
+      <c r="U46" s="139"/>
+      <c r="V46" s="139"/>
+      <c r="W46" s="139"/>
+      <c r="X46" s="139"/>
+      <c r="Y46" s="140"/>
     </row>
     <row r="47" spans="2:25" ht="21" customHeight="1">
-      <c r="B47" s="180" t="s">
+      <c r="B47" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="162" t="s">
+      <c r="C47" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="163"/>
-      <c r="E47" s="164"/>
-      <c r="F47" s="131">
+      <c r="D47" s="117"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="141">
         <f>B3+2</f>
         <v>43741</v>
       </c>
-      <c r="G47" s="132"/>
-      <c r="H47" s="133"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="143"/>
       <c r="I47" s="27"/>
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
@@ -5283,12 +5285,12 @@
       <c r="N47" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="134">
+      <c r="O47" s="93">
         <f>F47+30</f>
         <v>43771</v>
       </c>
-      <c r="P47" s="135"/>
-      <c r="Q47" s="187" t="s">
+      <c r="P47" s="94"/>
+      <c r="Q47" s="71" t="s">
         <v>33</v>
       </c>
       <c r="R47" s="44" t="s">
@@ -5297,27 +5299,27 @@
       <c r="S47" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T47" s="136" t="s">
+      <c r="T47" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="U47" s="137"/>
-      <c r="V47" s="187" t="s">
+      <c r="U47" s="145"/>
+      <c r="V47" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="187"/>
-      <c r="X47" s="138">
+      <c r="W47" s="71"/>
+      <c r="X47" s="97">
         <v>10630</v>
       </c>
-      <c r="Y47" s="139"/>
+      <c r="Y47" s="98"/>
     </row>
     <row r="48" spans="2:25" ht="21" customHeight="1">
-      <c r="B48" s="181"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="166"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="142"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="120"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="90"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="92"/>
       <c r="I48" s="29"/>
       <c r="J48" s="29"/>
       <c r="K48" s="29"/>
@@ -5326,28 +5328,28 @@
       <c r="N48" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="O48" s="134"/>
-      <c r="P48" s="135"/>
-      <c r="Q48" s="188"/>
+      <c r="O48" s="93"/>
+      <c r="P48" s="94"/>
+      <c r="Q48" s="72"/>
       <c r="R48" s="45"/>
       <c r="S48" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="T48" s="143"/>
-      <c r="U48" s="144"/>
-      <c r="V48" s="188"/>
-      <c r="W48" s="188"/>
-      <c r="X48" s="138"/>
-      <c r="Y48" s="139"/>
+      <c r="T48" s="95"/>
+      <c r="U48" s="96"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="97"/>
+      <c r="Y48" s="98"/>
     </row>
     <row r="49" spans="2:25" ht="21" customHeight="1">
-      <c r="B49" s="182"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="169"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="147"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="101"/>
       <c r="I49" s="31"/>
       <c r="J49" s="31"/>
       <c r="K49" s="31"/>
@@ -5356,55 +5358,55 @@
       <c r="N49" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O49" s="134"/>
-      <c r="P49" s="135"/>
-      <c r="Q49" s="189"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="94"/>
+      <c r="Q49" s="73"/>
       <c r="R49" s="46"/>
       <c r="S49" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="T49" s="148"/>
-      <c r="U49" s="149"/>
-      <c r="V49" s="189"/>
-      <c r="W49" s="189"/>
-      <c r="X49" s="138"/>
-      <c r="Y49" s="139"/>
+      <c r="T49" s="102"/>
+      <c r="U49" s="103"/>
+      <c r="V49" s="73"/>
+      <c r="W49" s="73"/>
+      <c r="X49" s="97"/>
+      <c r="Y49" s="98"/>
     </row>
     <row r="50" spans="2:25" ht="24">
-      <c r="B50" s="150" t="s">
+      <c r="B50" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="153">
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="107">
         <f>S43+X50</f>
         <v>10630</v>
       </c>
-      <c r="G50" s="154"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="154"/>
-      <c r="K50" s="154"/>
-      <c r="L50" s="154"/>
-      <c r="M50" s="154"/>
-      <c r="N50" s="155"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="109"/>
       <c r="O50" s="33"/>
       <c r="P50" s="34"/>
       <c r="Q50" s="47"/>
-      <c r="R50" s="156"/>
-      <c r="S50" s="157"/>
+      <c r="R50" s="110"/>
+      <c r="S50" s="111"/>
       <c r="T50" s="48"/>
       <c r="U50" s="49"/>
-      <c r="V50" s="158" t="s">
+      <c r="V50" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="W50" s="159"/>
-      <c r="X50" s="160">
+      <c r="W50" s="113"/>
+      <c r="X50" s="114">
         <f>SUM(X47:Y49)</f>
         <v>10630</v>
       </c>
-      <c r="Y50" s="161"/>
+      <c r="Y50" s="115"/>
     </row>
     <row r="51" spans="2:25" ht="12" customHeight="1">
       <c r="C51" s="11"/>
@@ -5432,119 +5434,258 @@
       <c r="Y51" s="50"/>
     </row>
     <row r="52" spans="2:25" ht="25.5" customHeight="1">
-      <c r="B52" s="171" t="s">
+      <c r="B52" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="171"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="171"/>
-      <c r="M52" s="171"/>
-      <c r="N52" s="171"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
+      <c r="K52" s="53"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="53"/>
+      <c r="N52" s="53"/>
       <c r="O52" s="37"/>
-      <c r="P52" s="172" t="s">
+      <c r="P52" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="Q52" s="173"/>
-      <c r="R52" s="173"/>
-      <c r="S52" s="173"/>
-      <c r="T52" s="173"/>
-      <c r="U52" s="173"/>
-      <c r="V52" s="173"/>
-      <c r="W52" s="173"/>
-      <c r="X52" s="173"/>
-      <c r="Y52" s="174"/>
+      <c r="Q52" s="55"/>
+      <c r="R52" s="55"/>
+      <c r="S52" s="55"/>
+      <c r="T52" s="55"/>
+      <c r="U52" s="55"/>
+      <c r="V52" s="55"/>
+      <c r="W52" s="55"/>
+      <c r="X52" s="55"/>
+      <c r="Y52" s="56"/>
     </row>
     <row r="53" spans="2:25" ht="16.5" customHeight="1">
-      <c r="B53" s="175" t="s">
+      <c r="B53" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="175"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="175"/>
-      <c r="F53" s="175"/>
-      <c r="G53" s="175"/>
-      <c r="H53" s="175"/>
-      <c r="I53" s="175"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="175"/>
-      <c r="L53" s="175"/>
-      <c r="M53" s="175"/>
-      <c r="N53" s="175"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
       <c r="O53" s="38"/>
-      <c r="P53" s="192"/>
-      <c r="Q53" s="193"/>
-      <c r="R53" s="194"/>
-      <c r="S53" s="193"/>
-      <c r="T53" s="193"/>
-      <c r="U53" s="193"/>
-      <c r="V53" s="193"/>
-      <c r="W53" s="193"/>
-      <c r="X53" s="193"/>
-      <c r="Y53" s="195"/>
+      <c r="P53" s="76"/>
+      <c r="Q53" s="77"/>
+      <c r="R53" s="78"/>
+      <c r="S53" s="77"/>
+      <c r="T53" s="77"/>
+      <c r="U53" s="77"/>
+      <c r="V53" s="77"/>
+      <c r="W53" s="77"/>
+      <c r="X53" s="77"/>
+      <c r="Y53" s="79"/>
     </row>
     <row r="54" spans="2:25" ht="27.75" customHeight="1">
-      <c r="B54" s="176" t="s">
+      <c r="B54" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="176"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="176"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="176"/>
-      <c r="K54" s="176"/>
-      <c r="L54" s="176"/>
-      <c r="M54" s="176"/>
-      <c r="N54" s="176"/>
-      <c r="P54" s="192"/>
-      <c r="Q54" s="193"/>
-      <c r="R54" s="194"/>
-      <c r="S54" s="193"/>
-      <c r="T54" s="193"/>
-      <c r="U54" s="193"/>
-      <c r="V54" s="193"/>
-      <c r="W54" s="193"/>
-      <c r="X54" s="193"/>
-      <c r="Y54" s="195"/>
+      <c r="C54" s="58"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="58"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="58"/>
+      <c r="M54" s="58"/>
+      <c r="N54" s="58"/>
+      <c r="P54" s="76"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="78"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
+      <c r="W54" s="77"/>
+      <c r="X54" s="77"/>
+      <c r="Y54" s="79"/>
     </row>
     <row r="55" spans="2:25" ht="21" customHeight="1">
-      <c r="B55" s="177" t="s">
+      <c r="B55" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="177"/>
-      <c r="D55" s="177"/>
-      <c r="E55" s="177"/>
-      <c r="F55" s="177"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="177"/>
-      <c r="J55" s="177"/>
-      <c r="K55" s="177"/>
-      <c r="L55" s="177"/>
-      <c r="M55" s="177"/>
-      <c r="N55" s="177"/>
-      <c r="P55" s="196"/>
-      <c r="Q55" s="197"/>
-      <c r="R55" s="198"/>
-      <c r="S55" s="197"/>
-      <c r="T55" s="197"/>
-      <c r="U55" s="197"/>
-      <c r="V55" s="197"/>
-      <c r="W55" s="197"/>
-      <c r="X55" s="197"/>
-      <c r="Y55" s="199"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="59"/>
+      <c r="K55" s="59"/>
+      <c r="L55" s="59"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="59"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="81"/>
+      <c r="R55" s="82"/>
+      <c r="S55" s="81"/>
+      <c r="T55" s="81"/>
+      <c r="U55" s="81"/>
+      <c r="V55" s="81"/>
+      <c r="W55" s="81"/>
+      <c r="X55" s="81"/>
+      <c r="Y55" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="163">
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:O8"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="T12:Y12"/>
+    <mergeCell ref="Q4:T8"/>
+    <mergeCell ref="V6:W8"/>
+    <mergeCell ref="X6:Y8"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="T13:Y13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="T14:Y14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="T15:Y15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="T22:Y22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="T24:Y24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="T25:Y25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="T26:Y26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="T28:Y28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="T29:Y29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="T30:Y30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="T32:Y32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="T33:Y33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="T34:Y34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="T35:Y35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="T36:Y36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="T37:Y37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="T38:Y38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="T39:Y39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="T40:Y40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="T41:Y41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="B45:Q45"/>
+    <mergeCell ref="R45:Y45"/>
+    <mergeCell ref="B46:Y46"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:N50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="X50:Y50"/>
+    <mergeCell ref="C47:E49"/>
     <mergeCell ref="B52:N52"/>
     <mergeCell ref="P52:Y52"/>
     <mergeCell ref="B53:N53"/>
@@ -5569,145 +5710,6 @@
     <mergeCell ref="P53:Y55"/>
     <mergeCell ref="T10:Y11"/>
     <mergeCell ref="V47:W49"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:N50"/>
-    <mergeCell ref="R50:S50"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="X50:Y50"/>
-    <mergeCell ref="C47:E49"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="B45:Q45"/>
-    <mergeCell ref="R45:Y45"/>
-    <mergeCell ref="B46:Y46"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="T40:Y40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="T41:Y41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="T37:Y37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="T38:Y38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="T39:Y39"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="T34:Y34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="T35:Y35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="T32:Y32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="T33:Y33"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="T28:Y28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="T29:Y29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="T30:Y30"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="T25:Y25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="T26:Y26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="T22:Y22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="T24:Y24"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="T13:Y13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="T14:Y14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="T15:Y15"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:O8"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="T12:Y12"/>
-    <mergeCell ref="Q4:T8"/>
-    <mergeCell ref="V6:W8"/>
-    <mergeCell ref="X6:Y8"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X5:Y5"/>
   </mergeCells>
   <phoneticPr fontId="39" type="noConversion"/>
   <conditionalFormatting sqref="D51">
